--- a/_data/cv_entries.xlsx
+++ b/_data/cv_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Academia/Personligt/CVs/pagedown_cv/_cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Website/lyngs-hugo/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86A3B0-1E07-1E4B-958D-F2D8AF6C781E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CF263-1456-434C-9911-38562BFA853B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="217">
   <si>
     <t>DPhil in Computer Science</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>2012-10-25</t>
+  </si>
+  <si>
+    <t>Teaching assistant to Taha Yasseri - teaching the technical part of the class on analytics and visualisation of non-normally distributed data in R and RStudio.</t>
+  </si>
+  <si>
+    <t>[Big Data Analytics](https://www.oii.ox.ac.uk/study/courses/big-data-analytics/)</t>
+  </si>
+  <si>
+    <t>Oxford Internet Institute, University of Oxford</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3088,26 +3097,27 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="2">
-        <v>2019</v>
+      <c r="B69" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>66</v>
+        <v>216</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -3120,22 +3130,21 @@
         <v>65</v>
       </c>
       <c r="B70" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -3148,21 +3157,19 @@
         <v>65</v>
       </c>
       <c r="B71" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2011</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3173,53 +3180,56 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B72" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>2010</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2011</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>176</v>
+        <v>67</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -3227,23 +3237,21 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B74" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="2">
         <v>2019</v>
       </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3256,21 +3264,23 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="2">
         <v>2019</v>
       </c>
-      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -3282,6 +3292,33 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_data/cv_entries.xlsx
+++ b/_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Website/lyngs-hugo/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Work/Website/lyngs-hugo/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CF263-1456-434C-9911-38562BFA853B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F63885-FA63-4A40-AD3A-1476F8736B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="231">
   <si>
     <t>DPhil in Computer Science</t>
   </si>
@@ -188,12 +188,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>[Computer-Supported Cooperative Work and Social Computing](http://cscw.acm.org/2019/)</t>
-  </si>
-  <si>
-    <t>[ACM CHI Conference](https://sigchi.org/)</t>
-  </si>
-  <si>
     <t>Hackathon at CodeBase, Edinburgh, organised by the [UnBias](https://unbias.wp.horizon.ac.uk/) project, University of Oxford</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>Institute of Social &amp; Cultural Anthropology, University of Oxford</t>
   </si>
   <si>
-    <t>[ACM Transactions on Computer-Human Interaction (TOCHI)](http://tochi.acm.org/)</t>
-  </si>
-  <si>
     <t>R Markdown Instructor</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t>£500</t>
   </si>
   <si>
-    <t>Designing for Curiosity Workshop Grant</t>
-  </si>
-  <si>
     <t>€400</t>
   </si>
   <si>
@@ -530,9 +518,6 @@
     <t>£1,000</t>
   </si>
   <si>
-    <t>EPSRC Doctoral Prize</t>
-  </si>
-  <si>
     <t>£27,915.80; salary + research support costs</t>
   </si>
   <si>
@@ -578,21 +563,12 @@
     <t>[RoboTIPS: Developing Responsible Robots for the Digital Economy](https://www.cs.ox.ac.uk/projects/RoboTIPS/index.html)</t>
   </si>
   <si>
-    <t>Developing accident scenarios and investigation processes to inform responsible innovation in social robotics, with researchers at the Dept. of Computer Science in Oxford (lead: prof. Marina Jirotka), and the Bristol Robotics Facility (lead: prof. Alan Winfield).</t>
-  </si>
-  <si>
-    <t>6 month post-doc award</t>
-  </si>
-  <si>
     <t>Mathematical, Physical and Life Sciences Division, University of Oxford</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Impact Awards 2020: Commendation Certificate for the Reducing Digital Distraction workshops</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -602,9 +578,6 @@
     <t>Digital Wellbeing in Practice: Examining the Effectiveness of Digital Self-Control Strategies</t>
   </si>
   <si>
-    <t>Digital Ethnography Group, Oxford Internet Institute, University of Oxford</t>
-  </si>
-  <si>
     <t>Department of Computer Science, University of Copenhagen</t>
   </si>
   <si>
@@ -681,6 +654,75 @@
   </si>
   <si>
     <t>Oxford Internet Institute, University of Oxford</t>
+  </si>
+  <si>
+    <t>[EPSRC Doctoral Prize](https://epsrc.ukri.org/skills/students/dta/doctoralprize/)</t>
+  </si>
+  <si>
+    <t>[MPLS Impact Awards 2020](https://www.mpls.ox.ac.uk/news/mpls-impact-awards-2020-winners-announced-at-winter-reception): Commendation Certificate for the *Reducing Digital Distraction* workshop</t>
+  </si>
+  <si>
+    <t>Workshop Grant, Designing for Curiosity</t>
+  </si>
+  <si>
+    <t>awarded 6 months of funding to continue my PhD research</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>[ACM Transactions on Computer-Human Interaction (TOCHI)](http://tochi.acm.org/),  &lt;br&gt; [ACM CHI Conference](https://sigchi.org/),  &lt;br&gt; [Computer-Supported Cooperative Work and Social Computing](http://cscw.acm.org/2019/),  &lt;br&gt;[International Journal of Human-Computer Studies](https://www.journals.elsevier.com/international-journal-of-human-computer-studies)</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Dept. For the Study of Religion, Aarhus University</t>
+  </si>
+  <si>
+    <t>DKK 1200</t>
+  </si>
+  <si>
+    <t>University of Helsinki</t>
+  </si>
+  <si>
+    <t>Full scholarship to the 2008 Helsinki Summer School (course: *Qumran Movement in Second Temple Judaism*)</t>
+  </si>
+  <si>
+    <t>Travel grant in relation to participation in the 2008 University of Helsinki Summer School</t>
+  </si>
+  <si>
+    <t>Data Scientist and Digital Humanities Consultant</t>
+  </si>
+  <si>
+    <t>[Śākta Traditions](http://saktatraditions.org/people/), University of Oxford</t>
+  </si>
+  <si>
+    <t>Developed accident scenarios and investigation processes to inform responsible innovation in social robotics, with researchers at the Dept. of Computer Science in Oxford (lead: prof. Marina Jirotka), and the Bristol Robotics Facility (lead: prof. Alan Winfield).</t>
+  </si>
+  <si>
+    <t>I provide practical support and consultancy on natural language processing methods for analysis and visualisation of large text corpora, using reproducible workflows in R Markdown.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Digital Wellbeing in Practice: Designing for Digital Self-Control</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>[Digital Ethnography Group (OxDEG)](https://www.oii.ox.ac.uk/research/projects/oxdeg/), Oxford Internet Institute, University of Oxford</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>/pdfs/2020-04-22_lyngs_google_digi_wellbeing.pdf</t>
+  </si>
+  <si>
+    <t>[Google Digital Wellbeing](https://wellbeing.google) Team</t>
   </si>
 </sst>
 </file>
@@ -1050,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,25 +1106,26 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="9" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -1097,28 +1140,31 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1137,17 +1183,17 @@
         <v>2</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1166,17 +1212,18 @@
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1189,23 +1236,24 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1224,17 +1272,18 @@
         <v>3</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1247,26 +1296,27 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1277,26 +1327,27 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1307,26 +1358,27 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1337,26 +1389,27 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1367,26 +1420,27 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1397,26 +1451,27 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1427,26 +1482,27 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1457,26 +1513,27 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1487,42 +1544,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1531,98 +1587,105 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>2017</v>
+      <c r="B17" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>52</v>
+      <c r="G17" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1633,25 +1696,26 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
         <v>3</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1664,26 +1728,27 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1696,13 +1761,13 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1712,8 +1777,9 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1726,28 +1792,29 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1760,73 +1827,77 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1836,26 +1907,27 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
-        <v>2019</v>
+      <c r="B26" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>11</v>
+      <c r="D26" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1865,8 +1937,9 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1875,29 +1948,28 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1906,29 +1978,30 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -1937,29 +2010,30 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1971,13 +2045,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1985,10 +2059,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1997,16 +2074,16 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2016,8 +2093,9 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2029,26 +2107,25 @@
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -2060,59 +2137,59 @@
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -2120,30 +2197,33 @@
         <v>2018</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>9</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -2153,57 +2233,59 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -2213,26 +2295,29 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -2242,26 +2327,27 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2271,26 +2357,27 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2300,24 +2387,27 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -2327,13 +2417,13 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2343,24 +2433,25 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2370,24 +2461,25 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2397,24 +2489,25 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2424,35 +2517,37 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="F46" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2463,116 +2558,122 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2582,22 +2683,23 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="2">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2607,302 +2709,316 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B53" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B54" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="187" x14ac:dyDescent="0.2">
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B55" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" ht="187" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B58" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C58" s="2">
         <v>2019</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B59" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C59" s="2">
         <v>2019</v>
       </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C60" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2019</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2016</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H62" s="2" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>43</v>
       </c>
@@ -2911,265 +3027,270 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C64" s="2">
-        <v>2019</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2">
-        <v>2</v>
-      </c>
+      <c r="K64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="K65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C66" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2">
-        <v>3</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2">
+        <v>2</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="2">
         <v>2017</v>
       </c>
-      <c r="C67" s="2">
-        <v>2019</v>
+      <c r="C67" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2">
-        <v>4</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2016</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2">
-        <v>5</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2">
+        <v>3</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2019</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="M69" s="2">
+        <v>4</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="M70" s="2">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="2">
-        <v>2013</v>
+        <v>63</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3179,123 +3300,127 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2011</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>2010</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2011</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2">
         <v>2018</v>
       </c>
-      <c r="C75" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2">
         <v>2019</v>
@@ -3304,25 +3429,84 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1" xr:uid="{14DBC9C1-4397-8C40-A9A4-66F62C0D9162}"/>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{14DBC9C1-4397-8C40-A9A4-66F62C0D9162}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
